--- a/biology/Mycologie/Sarcosphaera_coronaria/Sarcosphaera_coronaria.xlsx
+++ b/biology/Mycologie/Sarcosphaera_coronaria/Sarcosphaera_coronaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarcosphaera coronaria est une espèce de champignons ascomycètes de la famille des Pezizaceae. Elle est aussi connue sous le nom de pézize couronnée[1] ou pézize superbe[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarcosphaera coronaria est une espèce de champignons ascomycètes de la famille des Pezizaceae. Elle est aussi connue sous le nom de pézize couronnée ou pézize superbe. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sporophore de ce champignon est constitué d'une apothécie mesurant entre 3 et 15 cm diamètre[3]. Elle est fermée puis s'ouvre sous forme d'étoile à maturité. L'extérieur est de couleur blanche. L'intérieur est violet voire brun et devient jaunâtre avec le temps[1].
-On peut observer le sporophore de la pézize superbe entre avril et juin[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sporophore de ce champignon est constitué d'une apothécie mesurant entre 3 et 15 cm diamètre. Elle est fermée puis s'ouvre sous forme d'étoile à maturité. L'extérieur est de couleur blanche. L'intérieur est violet voire brun et devient jaunâtre avec le temps.
+On peut observer le sporophore de la pézize superbe entre avril et juin.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve la pézize couronnée dans les forêts de feuillus et de conifères au sol calcaire[1]. Elle a également pu être observé sur des sols sablonneux à proximité des littoraux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve la pézize couronnée dans les forêts de feuillus et de conifères au sol calcaire. Elle a également pu être observé sur des sols sablonneux à proximité des littoraux.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette pézize se rencontre surtout en Europe, en particulier dans les Alpes[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette pézize se rencontre surtout en Europe, en particulier dans les Alpes.
 </t>
         </is>
       </c>
@@ -605,11 +623,13 @@
           <t>Toxicité et consommation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon les recommandations actuelles, ce champignon est considéré comme non comestible, voire toxique. Il doit impérativement ne pas être ingéré cru[4].
-Plusieurs cas d'intoxication ont été recensé, dont un mortel[4].
-Dans la littérature ancienne concernant la mycologie, la pézize couronnée était pourtant considérée comme comestible[4]. Elle aurait d'ailleurs été consommée pendant plusieurs siècles  dans le Jura[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les recommandations actuelles, ce champignon est considéré comme non comestible, voire toxique. Il doit impérativement ne pas être ingéré cru.
+Plusieurs cas d'intoxication ont été recensé, dont un mortel.
+Dans la littérature ancienne concernant la mycologie, la pézize couronnée était pourtant considérée comme comestible. Elle aurait d'ailleurs été consommée pendant plusieurs siècles  dans le Jura.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Caulocarpa montana Gilkey
 Peziza coronaria Jacq.
@@ -675,9 +697,11 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarcosphaera coronaria peut être confondu avec Sarcosphaera crassa, qui est également toxique[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarcosphaera coronaria peut être confondu avec Sarcosphaera crassa, qui est également toxique.
 </t>
         </is>
       </c>
